--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Slurp1</t>
+  </si>
+  <si>
+    <t>Chrna7</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Slurp1</t>
-  </si>
-  <si>
-    <t>Chrna7</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.033624</v>
+        <v>0.2976533333333333</v>
       </c>
       <c r="H2">
-        <v>0.100872</v>
+        <v>0.89296</v>
       </c>
       <c r="I2">
-        <v>0.1014980399101659</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1014980399101659</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.6067206666666668</v>
+        <v>0.05437633333333333</v>
       </c>
       <c r="N2">
-        <v>1.820162</v>
+        <v>0.163129</v>
       </c>
       <c r="O2">
-        <v>0.2826254248320548</v>
+        <v>0.005255973740913027</v>
       </c>
       <c r="P2">
-        <v>0.2826254248320548</v>
+        <v>0.005255973740913026</v>
       </c>
       <c r="Q2">
-        <v>0.02040037569600001</v>
+        <v>0.01618529687111111</v>
       </c>
       <c r="R2">
-        <v>0.183603381264</v>
+        <v>0.14566767184</v>
       </c>
       <c r="S2">
-        <v>0.02868592664923149</v>
+        <v>0.005255973740913027</v>
       </c>
       <c r="T2">
-        <v>0.02868592664923149</v>
+        <v>0.005255973740913026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.033624</v>
+        <v>0.2976533333333333</v>
       </c>
       <c r="H3">
-        <v>0.100872</v>
+        <v>0.89296</v>
       </c>
       <c r="I3">
-        <v>0.1014980399101659</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.1014980399101659</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,42 +614,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.54001</v>
+        <v>0.6067206666666666</v>
       </c>
       <c r="N3">
-        <v>4.62003</v>
+        <v>1.820162</v>
       </c>
       <c r="O3">
-        <v>0.7173745751679452</v>
+        <v>0.05864514388127025</v>
       </c>
       <c r="P3">
-        <v>0.7173745751679453</v>
+        <v>0.05864514388127025</v>
       </c>
       <c r="Q3">
-        <v>0.05178129624</v>
+        <v>0.1805924288355555</v>
       </c>
       <c r="R3">
-        <v>0.46603166616</v>
+        <v>1.62533185952</v>
       </c>
       <c r="S3">
-        <v>0.07281211326093441</v>
+        <v>0.05864514388127025</v>
       </c>
       <c r="T3">
-        <v>0.07281211326093442</v>
+        <v>0.05864514388127025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2976533333333334</v>
+        <v>0.2976533333333333</v>
       </c>
       <c r="H4">
-        <v>0.8929600000000001</v>
+        <v>0.89296</v>
       </c>
       <c r="I4">
-        <v>0.8985019600898342</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8985019600898342</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6067206666666668</v>
+        <v>9.684528</v>
       </c>
       <c r="N4">
-        <v>1.820162</v>
+        <v>29.053584</v>
       </c>
       <c r="O4">
-        <v>0.2826254248320548</v>
+        <v>0.9360988823778167</v>
       </c>
       <c r="P4">
-        <v>0.2826254248320548</v>
+        <v>0.9360988823778167</v>
       </c>
       <c r="Q4">
-        <v>0.1805924288355556</v>
+        <v>2.88263204096</v>
       </c>
       <c r="R4">
-        <v>1.62533185952</v>
+        <v>25.94368836864</v>
       </c>
       <c r="S4">
-        <v>0.2539394981828233</v>
+        <v>0.9360988823778167</v>
       </c>
       <c r="T4">
-        <v>0.2539394981828233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.2976533333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.8929600000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.8985019600898342</v>
-      </c>
-      <c r="J5">
-        <v>0.8985019600898342</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.54001</v>
-      </c>
-      <c r="N5">
-        <v>4.62003</v>
-      </c>
-      <c r="O5">
-        <v>0.7173745751679452</v>
-      </c>
-      <c r="P5">
-        <v>0.7173745751679453</v>
-      </c>
-      <c r="Q5">
-        <v>0.4583891098666667</v>
-      </c>
-      <c r="R5">
-        <v>4.1255019888</v>
-      </c>
-      <c r="S5">
-        <v>0.6445624619070108</v>
-      </c>
-      <c r="T5">
-        <v>0.6445624619070109</v>
+        <v>0.9360988823778167</v>
       </c>
     </row>
   </sheetData>
